--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Pacote com 60 unidades</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mercantilnovaera.vtexassets.com/arquivos/ids/202685/Fralda-Pampers-Pants-Ajuste-Total-Tamanho-M-Pacote-60-Unidades.jpg?v=638032526199970000</t>
+    <t xml:space="preserve">https://img.camicado.com.br/item/100858346/small/1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Lenços umedecidos</t>
@@ -52,22 +52,34 @@
     <t xml:space="preserve">Kit com 4 pacotes</t>
   </si>
   <si>
+    <t xml:space="preserve">https://img.camicado.com.br/item/101147677/small/1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mamadeira 240ml anti-cólica</t>
   </si>
   <si>
     <t xml:space="preserve">Bico ortodôntico, 0+ meses</t>
   </si>
   <si>
+    <t xml:space="preserve">https://img.camicado.com.br/item/100881052/small/1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carrinho de bebê</t>
   </si>
   <si>
     <t xml:space="preserve">Dobrável, leve, até 15kg</t>
   </si>
   <si>
+    <t xml:space="preserve">https://img.camicado.com.br/item/100903637/small/1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banheira dobrável</t>
   </si>
   <si>
     <t xml:space="preserve">Compacta, fundo antiderrapante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.camicado.com.br/item/100903514/small/1.jpg</t>
   </si>
 </sst>
 </file>
@@ -157,13 +169,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -361,7 +377,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,73 +400,73 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>79.9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>39.9</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>59.9</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>899</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>159.9</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -14,114 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>categoria</t>
-  </si>
-  <si>
-    <t>descricao</t>
-  </si>
-  <si>
-    <t>preco_sugerido_brl</t>
-  </si>
-  <si>
-    <t>imagem_url</t>
-  </si>
-  <si>
-    <t>Fraldas descartáveis (tamanho RN/P)</t>
-  </si>
-  <si>
-    <t>Lenços umedecidos</t>
-  </si>
-  <si>
-    <t>Chupeta</t>
-  </si>
-  <si>
-    <t>Body / Macacão (RN-3M)</t>
-  </si>
-  <si>
-    <t>Mamadeiras (kit)</t>
-  </si>
-  <si>
-    <t>Babador</t>
-  </si>
-  <si>
-    <t>Banheira</t>
-  </si>
-  <si>
-    <t>Termômetro digital</t>
-  </si>
-  <si>
-    <t>Higiene</t>
-  </si>
-  <si>
-    <t>Acessórios</t>
-  </si>
-  <si>
-    <t>Roupas</t>
-  </si>
-  <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
-    <t>Banho</t>
-  </si>
-  <si>
-    <t>Saúde</t>
-  </si>
-  <si>
-    <t>Pacote de fraldas para recém-nascido ou P.</t>
-  </si>
-  <si>
-    <t>Lenços umedecidos suaves para o bebê.</t>
-  </si>
-  <si>
-    <t>Chupeta anatômica para recém-nascido.</t>
-  </si>
-  <si>
-    <t>Body confortável para os primeiros meses.</t>
-  </si>
-  <si>
-    <t>Conjunto com 2–3 mamadeiras de tamanhos diferentes.</t>
-  </si>
-  <si>
-    <t>Babador para proteger a roupinha durante a alimentação.</t>
-  </si>
-  <si>
-    <t>Banheira plástica para banho do bebê.</t>
-  </si>
-  <si>
-    <t>Termômetro digital/infrared para medir a temperatura.</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/8/8f/Disposable_Diapers-%28279414980%29.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/6/61/Baby_wipes.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/5/59/Pacifier_for_newborn.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/2/26/Baby_in_an_infant_bodysuit.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/4/48/Baby_Bottles_%2850841205848%29.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/0/0d/Bib%2C_baby_%28AM_2002.64.16%29.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/b/ba/Baby_bathing_tub_02.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/2/28/Digital_Thermometer_%2851825721879%29.jpg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>ImagemURL</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Kit chá de bebê recém-nascido (bolsa, fralda, lenço)</t>
+  </si>
+  <si>
+    <t>Fralda Pampers Confort Sec Mega</t>
+  </si>
+  <si>
+    <t>Lenço Umedecido Huggies Max Clean 96 un</t>
+  </si>
+  <si>
+    <t>Chupeta Philips Avent Soothie 0-3m (rosa)</t>
+  </si>
+  <si>
+    <t>Babador Silicone Pega-Migalhas Buba</t>
+  </si>
+  <si>
+    <t>Termômetro Infravermelho Multikids Baby</t>
+  </si>
+  <si>
+    <t>Banheira Bebê Tradicional 23L Jaguar (rosa)</t>
+  </si>
+  <si>
+    <t>Toalha com Capuz Minasrey 85x85</t>
+  </si>
+  <si>
+    <t>Mordedor de Água Buba (mãozinha)</t>
+  </si>
+  <si>
+    <t>Trocador Portátil PAPI (acolchoado, impermeável)</t>
+  </si>
+  <si>
+    <t>Mamadeira Philips Avent Pétala 3.0 260ml (azul)</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/kit-cha-de-bebe-recem-nascido-bolsa-fralda-lenco-umedecido-corezi/corezibolsaseacessorios/kmhi5r/9c64aa6d27052d14a9ea94392e3f1f73.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/fralda-pampers-confort-sec-mega/goodprice/2101121006/7499536c9a1a9127d664c3018185bcd3.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/lenco-umedecido-huggies-max-clean-96-unidades/hipercarijos/675792/175ada1e9eeb6e9333a547d46764616b.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/chupeta-philips-avent-recem-nascido-soothie-0-3mes-tam1-rosa/oliststore/mgl48ygtzlc8434d/6af6ef6a1b1d0b602116516a8781f8ab.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/babador-bebe-pega-migalhas-silicone-cata-migalhas-buba/letoy/buba15/64e8f2e9b234d783745df4e9123cf53a.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/termometro-infravermelho-digital-sem-contato-multilaser-bebe-multikids-baby/olistplus/opmnxc6jzvf4cqfs/d28e119c518dcc9d0a0f3de2b749bb8a.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/banheira-bebe-infantil-tradicional-23-litros-jaguar/hellokidsbrinquedos3/7741jag/fceea26a71cabcfdf7a4478287ac7c02.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/toalha-banho-bebe-infantil-fralda-macia-grossa-100-algodao-soft-estampada-menina-com-capuz-85x85cm-uso-diario-confortavel-macio-minasrey/babyzonebrasil/5302fem/8174bf3c91f0ae0351ce464e1cc72a22.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/mordedor-bebe-maozinha-agua-gelado-alivio-gengiva-buba/letoy/buba37/9d429ab241e1e938d65be15de8933d1e.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/trocador-portatil-bebe-acolchoado-com-lado-impermeavel-espuma-100-algodao-papi/bbyvariedades/15831647633/ccfbfc8f725e2765784178bc9f030f6f.jpeg</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/90x90/mamadeira-philips-avent-petala-3-0-260ml-azul/oliststore/mgl2vjawokfdangf/33aafd94626d494cdf55b8ac9f37682e.jpeg</t>
+  </si>
+  <si>
+    <t>Magazine Luiza</t>
   </si>
 </sst>
 </file>
@@ -492,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,186 +478,141 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>120</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,25 +58,97 @@
     <t xml:space="preserve">Higiene</t>
   </si>
   <si>
-    <t xml:space="preserve">Fralda Pampers Confort Sec Mega (P)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacote de fraldas tamanho P para recém-nascido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.magazineluiza.com.br/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://a-static.mlcdn.com.br/90x90/fralda-pampers-confort-sec-mega/goodprice/2101121006/7499536c9a1a9127d664c3018185bcd3.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenço Umedecido Huggies Max Clean 96un</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenços umedecidos suaves para limpeza do bebê.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://a-static.mlcdn.com.br/90x90/lenco-umedecido-huggies-max-clean-96-unidades/hipercarijos/675792/175ada1e9eeb6e9333a547d46764616b.jpeg</t>
+    <t xml:space="preserve">Fralda Pampers Confort Sec P 50un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacote de fraldas Pampers Confort Sec tamanho P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.americanas.com.br/_next/image?url=https%3A%2F%2Famericanas.vtexassets.com%2Farquivos%2Fids%2F35854654%2F7500435106610_1.jpg%3Fv%3D638913081535970000&amp;w=540&amp;q=90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda Pampers Confort Sec M 70un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteção até 12h - tamanho M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda Pampers Confort Sec G 60un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanho G com barreiras antivazamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda Pampers Confort Sec XG 58un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanho XG com ótima absorção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda Huggies Tripla Proteção M 42un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mais sequinho e protegido por até 12h.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda Huggies Tripla Proteção G 38un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canais suaves e cobertura respirável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda Huggies Tripla Proteção XG 56un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteção com conforto, tamanho XG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenço Umedecido Huggies 96un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenços hipoalergênicos sem álcool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.drogasil.com.br/huggies-lencos-umedecidos-classic-jumbo-com-96-unidades.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://product-data.raiadrogasil.io/images/8991203.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomada Bepantol Baby 30g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creme preventivo de assaduras 30g.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-30g-com-15-off/p-118631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomada Bepantol Baby 60g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteção por até 10 horas (60g).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660</t>
   </si>
   <si>
     <t xml:space="preserve">Alimentação</t>
@@ -85,31 +157,214 @@
     <t xml:space="preserve">Mamadeira Philips Avent Pétala 260ml</t>
   </si>
   <si>
-    <t xml:space="preserve">Mamadeira com bico macio para fluxo controlado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://a-static.mlcdn.com.br/90x90/mamadeira-philips-avent-petala-3-0-260ml-azul/oliststore/mgl2vjawokfdangf/33aafd94626d494cdf55b8ac9f37682e.jpeg</t>
+    <t xml:space="preserve">Bico macio de fluxo controlado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamadeira Philips Avent 330ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrafa maior com bico anti-cólica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babador Silicone Buba Pega-Migalhas (rosa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babador de silicone ajustável e fácil de limpar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rihappy.com.br/babador-de-silicone-impermeavel-bebe---pega-migalhas-buba-1002435430/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babador Silicone Buba Pega-Migalhas (azul)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protege a roupinha e coleta migalhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rihappy.com.br/babador-de-silicone-com-pega-migalhas-tigre-buba/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Colher e Garfo Infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talheres com pontas arredondadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rihappy.com.br/</t>
   </si>
   <si>
     <t xml:space="preserve">Banho</t>
   </si>
   <si>
-    <t xml:space="preserve">Banheira para Bebê Tradicional 23L (rosa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banheira plástica de 23 litros para banho do bebê.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://a-static.mlcdn.com.br/90x90/banheira-bebe-infantil-tradicional-23-litros-jaguar/hellokidsbrinquedos3/7741jag/fceea26a71cabcfdf7a4478287ac7c02.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Babador de Silicone Pega-Migalhas Buba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Babador de silicone ajustável e fácil de limpar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://a-static.mlcdn.com.br/90x90/babador-bebe-pega-migalhas-silicone-cata-migalhas-buba/letoy/buba15/64e8f2e9b234d783745df4e9123cf53a.jpeg</t>
+    <t xml:space="preserve">Banheira de Bebê 23L Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banheira plástica de 23 litros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banheira 22L Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banheira confortável com apoio de braço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shampoo Suave Para Bebê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula hipoalergênica para uso diário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefour.com.br/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabonete Líquido Bebê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza delicada para a pele do bebê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toalha de Banho com Capuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toalha macia e superabsorvente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termômetro Infravermelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mede a temperatura sem contato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Fraldas de Boca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 fraldinhas de boca 100% algodão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passeio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trocador Portátil 75x45cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um lado impermeável, fácil de limpar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potinho Térmico para Papinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantém a comida aquecida por mais tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratinho Infantil com Ventosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuda a evitar quedas durante a refeição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copo de Treinamento Antivazamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transição do bico para o copo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álcool 70% Lenços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenços com álcool para higienização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.drogasil.com.br/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenço Umedecido Bepantol Baby 48un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza suave, hipoalergênico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda de Pano (kit 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraldas de tecido para apoio e ombro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manta de Microfibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manta macia para o berço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lençol para Berço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lençol 100% algodão para berço padrão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canguru/Sling Simples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sling ergonômico para passeio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escova de Mamadeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escova com cerdas macias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton Swabs (Cotonetes) Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotonetes com ponta segura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creme para Prevenção de Assaduras Needs 30g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creme hipoalergênico com pró-vitamina B5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.drogasil.com.br/needs-creme-contra-assadura-30g.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álcool Gel Baby 60ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienização prática em passeios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda-Calça (pants) XG 30un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fralda-calça prática para vestir.</t>
   </si>
 </sst>
 </file>
@@ -385,7 +640,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,7 +650,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.78"/>
@@ -447,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>69.9</v>
+        <v>86.9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -476,13 +731,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>19.9</v>
+        <v>99.9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>2</v>
@@ -496,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -505,13 +760,13 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>79.9</v>
+        <v>86.9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>3</v>
@@ -525,22 +780,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="1" t="n">
-        <v>89.9</v>
+        <v>114.99</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>4</v>
@@ -554,157 +809,954 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="I38" s="3"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>84.93</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I39" s="3"/>
@@ -785,16 +1837,80 @@
   </sheetData>
   <autoFilter ref="A1:I57"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.magazineluiza.com.br/"/>
-    <hyperlink ref="H2" r:id="rId2" display="https://a-static.mlcdn.com.br/90x90/fralda-pampers-confort-sec-mega/goodprice/2101121006/7499536c9a1a9127d664c3018185bcd3.jpeg"/>
-    <hyperlink ref="G3" r:id="rId3" display="https://www.magazineluiza.com.br/"/>
-    <hyperlink ref="H3" r:id="rId4" display="https://a-static.mlcdn.com.br/90x90/lenco-umedecido-huggies-max-clean-96-unidades/hipercarijos/675792/175ada1e9eeb6e9333a547d46764616b.jpeg"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://www.magazineluiza.com.br/"/>
-    <hyperlink ref="H4" r:id="rId6" display="https://a-static.mlcdn.com.br/90x90/mamadeira-philips-avent-petala-3-0-260ml-azul/oliststore/mgl2vjawokfdangf/33aafd94626d494cdf55b8ac9f37682e.jpeg"/>
-    <hyperlink ref="G5" r:id="rId7" display="https://www.magazineluiza.com.br/"/>
-    <hyperlink ref="H5" r:id="rId8" display="https://a-static.mlcdn.com.br/90x90/banheira-bebe-infantil-tradicional-23-litros-jaguar/hellokidsbrinquedos3/7741jag/fceea26a71cabcfdf7a4478287ac7c02.jpeg"/>
-    <hyperlink ref="G6" r:id="rId9" display="https://www.magazineluiza.com.br/"/>
-    <hyperlink ref="H6" r:id="rId10" display="https://a-static.mlcdn.com.br/90x90/babador-bebe-pega-migalhas-silicone-cata-migalhas-buba/letoy/buba15/64e8f2e9b234d783745df4e9123cf53a.jpeg"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://www.americanas.com.br/_next/image?url=https%3A%2F%2Famericanas.vtexassets.com%2Farquivos%2Fids%2F35854654%2F7500435106610_1.jpg%3Fv%3D638913081535970000&amp;w=540&amp;q=90"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H4" r:id="rId6" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
+    <hyperlink ref="G5" r:id="rId7" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H5" r:id="rId8" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
+    <hyperlink ref="G6" r:id="rId9" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
+    <hyperlink ref="H6" r:id="rId10" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
+    <hyperlink ref="G7" r:id="rId11" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
+    <hyperlink ref="H7" r:id="rId12" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
+    <hyperlink ref="G8" r:id="rId13" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
+    <hyperlink ref="H8" r:id="rId14" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
+    <hyperlink ref="G9" r:id="rId15" display="https://www.drogasil.com.br/huggies-lencos-umedecidos-classic-jumbo-com-96-unidades.html"/>
+    <hyperlink ref="H9" r:id="rId16" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="G10" r:id="rId17" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-30g-com-15-off/p-118631"/>
+    <hyperlink ref="H10" r:id="rId18" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G11" r:id="rId19" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660"/>
+    <hyperlink ref="H11" r:id="rId20" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G12" r:id="rId21" display="https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p"/>
+    <hyperlink ref="H12" r:id="rId22" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G13" r:id="rId23" display="https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p"/>
+    <hyperlink ref="H13" r:id="rId24" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G14" r:id="rId25" display="https://www.rihappy.com.br/babador-de-silicone-impermeavel-bebe---pega-migalhas-buba-1002435430/p"/>
+    <hyperlink ref="H14" r:id="rId26" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G15" r:id="rId27" display="https://www.rihappy.com.br/babador-de-silicone-com-pega-migalhas-tigre-buba/p"/>
+    <hyperlink ref="H15" r:id="rId28" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G16" r:id="rId29" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H16" r:id="rId30" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G17" r:id="rId31" display="https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p"/>
+    <hyperlink ref="H17" r:id="rId32" display="https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000"/>
+    <hyperlink ref="G18" r:id="rId33" display="https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p"/>
+    <hyperlink ref="H18" r:id="rId34" display="https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000"/>
+    <hyperlink ref="G19" r:id="rId35" display="https://www.carrefour.com.br/"/>
+    <hyperlink ref="H19" r:id="rId36" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
+    <hyperlink ref="G20" r:id="rId37" display="https://www.carrefour.com.br/"/>
+    <hyperlink ref="H20" r:id="rId38" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
+    <hyperlink ref="G21" r:id="rId39" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H21" r:id="rId40" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G22" r:id="rId41" display="https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p"/>
+    <hyperlink ref="H22" r:id="rId42" display="https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000"/>
+    <hyperlink ref="G23" r:id="rId43" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H23" r:id="rId44" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G24" r:id="rId45" display="https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p"/>
+    <hyperlink ref="H24" r:id="rId46" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G25" r:id="rId47" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H25" r:id="rId48" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G26" r:id="rId49" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H26" r:id="rId50" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G27" r:id="rId51" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H27" r:id="rId52" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G28" r:id="rId53" display="https://www.drogasil.com.br/"/>
+    <hyperlink ref="H28" r:id="rId54" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="G29" r:id="rId55" display="https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139"/>
+    <hyperlink ref="H29" r:id="rId56" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G30" r:id="rId57" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H30" r:id="rId58" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G31" r:id="rId59" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H31" r:id="rId60" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G32" r:id="rId61" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H32" r:id="rId62" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G33" r:id="rId63" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H33" r:id="rId64" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G34" r:id="rId65" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H34" r:id="rId66" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G35" r:id="rId67" display="https://www.carrefour.com.br/"/>
+    <hyperlink ref="H35" r:id="rId68" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
+    <hyperlink ref="G36" r:id="rId69" display="https://www.drogasil.com.br/needs-creme-contra-assadura-30g.html"/>
+    <hyperlink ref="H36" r:id="rId70" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G37" r:id="rId71" display="https://www.drogasil.com.br/"/>
+    <hyperlink ref="H37" r:id="rId72" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="G38" r:id="rId73" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H38" r:id="rId74" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -803,6 +1919,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId75"/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$57</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec</t>
   </si>
   <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg</t>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg?v=638779886816100000</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Pampers Confort Sec G 60un</t>
@@ -88,12 +88,18 @@
     <t xml:space="preserve">Tamanho G com barreiras antivazamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/181876736/fralda-descartavel-pampers-confort-sec-g-60-unidades-1.jpg?v=638703203002000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fralda Pampers Confort Sec XG 58un</t>
   </si>
   <si>
     <t xml:space="preserve">Tamanho XG com ótima absorção.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/19777682/fraldas-pampers-confort-sec-xg-58-unidades-1.jpg?v=637610955438030000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fralda Huggies Tripla Proteção M 42un</t>
   </si>
   <si>
@@ -112,12 +118,18 @@
     <t xml:space="preserve">Canais suaves e cobertura respirável.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fralda Huggies Tripla Proteção XG 56un</t>
   </si>
   <si>
     <t xml:space="preserve">Proteção com conforto, tamanho XG.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lenço Umedecido Huggies 96un</t>
   </si>
   <si>
@@ -151,6 +163,9 @@
     <t xml:space="preserve">https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alimentação</t>
   </si>
   <si>
@@ -166,12 +181,6 @@
     <t xml:space="preserve">https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150</t>
   </si>
   <si>
-    <t xml:space="preserve">Mamadeira Philips Avent 330ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garrafa maior com bico anti-cólica.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Babador Silicone Buba Pega-Migalhas (rosa)</t>
   </si>
   <si>
@@ -184,15 +193,6 @@
     <t xml:space="preserve">https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150</t>
   </si>
   <si>
-    <t xml:space="preserve">Babador Silicone Buba Pega-Migalhas (azul)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protege a roupinha e coleta migalhas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rihappy.com.br/babador-de-silicone-com-pega-migalhas-tigre-buba/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kit Colher e Garfo Infantil</t>
   </si>
   <si>
@@ -202,18 +202,12 @@
     <t xml:space="preserve">https://www.rihappy.com.br/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banho</t>
   </si>
   <si>
-    <t xml:space="preserve">Banheira de Bebê 23L Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banheira plástica de 23 litros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Banheira 22L Rosa</t>
   </si>
   <si>
@@ -223,6 +217,9 @@
     <t xml:space="preserve">https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p</t>
   </si>
   <si>
+    <t xml:space="preserve">https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shampoo Suave Para Bebê</t>
   </si>
   <si>
@@ -232,18 +229,27 @@
     <t xml:space="preserve">https://www.carrefour.com.br/</t>
   </si>
   <si>
+    <t xml:space="preserve">data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA=</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sabonete Líquido Bebê</t>
   </si>
   <si>
     <t xml:space="preserve">Limpeza delicada para a pele do bebê.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toalha de Banho com Capuz</t>
   </si>
   <si>
     <t xml:space="preserve">Toalha macia e superabsorvente.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61KGfyLz+oL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Termômetro Infravermelho</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t xml:space="preserve">https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p</t>
   </si>
   <si>
+    <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/termometro-laser-digital-infravermelho-draik/adcccomercio/prdczzzzq6yjlzh5/1db9141c946ce10fdc661e3ab810d791.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quarto</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
     <t xml:space="preserve">3 fraldinhas de boca 100% algodão.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/kit-6-fraldinhas-de-boca-bebe-babete-pano-de-boca-mae-e-filho-enxovais/maeefilhoenxovais/fv-6un-palha/40b0a4152966ee1e3f4333b8e1ce769f.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Passeio</t>
   </si>
   <si>
@@ -274,16 +286,16 @@
     <t xml:space="preserve">https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p</t>
   </si>
   <si>
+    <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/trocador-portatil-bebe-com-1-bolso-impermeavel-grande-100-algodao-com-fechamento-mae-e-filho-mae-e-filho-enxovais/maeefilhoenxovais/troc-port-1b-nvrosa/72d8120bf009b6ff915e07fd77ee3a39.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potinho Térmico para Papinha</t>
   </si>
   <si>
     <t xml:space="preserve">Mantém a comida aquecida por mais tempo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pratinho Infantil com Ventosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuda a evitar quedas durante a refeição.</t>
+    <t xml:space="preserve">https://encrypted-tbn2.gstatic.com/shopping?q=tbn:ANd9GcRgM8H59_-ZHTRLXwYsBCRYVdcNogmkPKjk9AjYkuf1pjopf0rzicuweephPrSHONLAwH0EcWj7zUUtpkAC7c0GtcP_3zjJCPrKBkFlaSYkvvPg3qR4GYxvd2ZlkYNWuP-9kybAxhCQx4tz&amp;usqp=CAc</t>
   </si>
   <si>
     <t xml:space="preserve">Copo de Treinamento Antivazamento</t>
@@ -292,6 +304,9 @@
     <t xml:space="preserve">Transição do bico para o copo.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn3.gstatic.com/shopping?q=tbn:ANd9GcRLUgjTvUAb29FA13PqSfvV_XzA1AmMnnscNAEekgObBqy-rfwF4TYn3Y7MBrFXEV8JPUlOD5pFxmyrF-3g0VcgGgrITZMoCqZ-iQ6kGRU_qJhb-KGy4oxZDQwXldPi4aFuuW5j2qboMX4&amp;usqp=CAc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Álcool 70% Lenços</t>
   </si>
   <si>
@@ -301,6 +316,9 @@
     <t xml:space="preserve">https://www.drogasil.com.br/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/limpa-chupeta-30-lencos-umedecidos-para-acessorios-do-bebe-likluc/lojabelacrianca/8360019609/31d98490c053e9bc0a2d1030d3a36bac.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lenço Umedecido Bepantol Baby 48un</t>
   </si>
   <si>
@@ -310,61 +328,52 @@
     <t xml:space="preserve">https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcSG7HWnYZOT_X-yw6qHfEMrNcskmBEUn5_cCDbHsTSyarFVXDm1-Lp1fblO87JmP4ZR2F7ZVMv7VlwYVNoyXS4KvT14XaMJ68CaUVV5ixQVYuaCRuV64Okjlf2Zu3HTM_CPJkXDcFbL6w&amp;usqp=CAc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fralda de Pano (kit 5)</t>
   </si>
   <si>
     <t xml:space="preserve">Fraldas de tecido para apoio e ombro.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn2.gstatic.com/shopping?q=tbn:ANd9GcQmv3SLUaY9VcPcLE11M8_TpDpXF9FcKBMJ60j6xR9p1vOpyssdhW4DM7fbOmWjnuqVsxmiQhwM6_uTcmsOXNczPh4ftktLUthQWMxxAsMaA_ihTRiOlSs5NHZWUt9vm-sAVHkcDpEz3BE&amp;usqp=CAc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manta de Microfibra</t>
   </si>
   <si>
     <t xml:space="preserve">Manta macia para o berço.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn3.gstatic.com/shopping?q=tbn:ANd9GcRVOjYDZq1o4b_Elsje4IVfaSXQntWdn45bOd0Q0rz1hDi08mpeSoluH5Y88JPIRRD6iw4G9X3I7-O7Gf6xSkgdZl3kZxuzCanMoLSjZdObSHeTK5jutMmMai5U6stDlP3uidI98FSB6OQ&amp;usqp=CAc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lençol para Berço</t>
   </si>
   <si>
     <t xml:space="preserve">Lençol 100% algodão para berço padrão.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn3.gstatic.com/shopping?q=tbn:ANd9GcRoFyZQ_46NuxLBbPWvKIk6FU01_T5a3stCx4Mqzg92LqNeQmdCH_Iqwmwv1ihSQZFGJ0doXfmh2bPccItQpYT1EPqDpRBc96i0L2hkLOsMACY9omzAYDEgBd-HaPw2sjgqj0APPOo&amp;usqp=CAc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canguru/Sling Simples</t>
   </si>
   <si>
     <t xml:space="preserve">Sling ergonômico para passeio.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn3.gstatic.com/shopping?q=tbn:ANd9GcQ137zO_8_vtE-0e7wkYQrufa8wqKxgdVmdp8A50yvZiOjc3tMFIL4WAA3soioXZSwujKkWqOwbU3srizV7i7mzb8p-SiaVHe_itlSGmg58nnQhUqJ_6odTeQPgDhbcNhxILgwmey5wQw&amp;usqp=CAc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escova de Mamadeira</t>
   </si>
   <si>
     <t xml:space="preserve">Escova com cerdas macias.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cotton Swabs (Cotonetes) Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotonetes com ponta segura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creme para Prevenção de Assaduras Needs 30g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creme hipoalergênico com pró-vitamina B5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.drogasil.com.br/needs-creme-contra-assadura-30g.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álcool Gel Baby 60ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higienização prática em passeios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fralda-Calça (pants) XG 30un</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fralda-calça prática para vestir.</t>
+    <t xml:space="preserve">https://encrypted-tbn2.gstatic.com/shopping?q=tbn:ANd9GcRVAwCuTuBA4iH8pfW26dulQy1Ee33HyQgOJLzrzBaRWvA7SgMB3PFn5_7dm5EcG05WUBnp9k7BuJhM3Rxve_e-ADHQPK7hgE5DbBQ7wLL6vmQlZsF_6G_ryKDxYabotzKfcs0FCWWgbw&amp;usqp=CAc</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -401,6 +410,14 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -455,11 +472,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -477,10 +494,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,10 +658,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,22 +713,22 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="0" t="n">
         <v>86.9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -721,22 +742,22 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="0" t="n">
         <v>99.9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -750,23 +771,23 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="0" t="n">
         <v>86.9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>3</v>
@@ -779,52 +800,52 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>114.99</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>69.9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>5</v>
@@ -837,23 +858,23 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>6</v>
@@ -866,23 +887,23 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>114.9</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>7</v>
@@ -895,23 +916,23 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>24.9</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>8</v>
@@ -924,23 +945,23 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>39.9</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>9</v>
@@ -953,23 +974,23 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="D11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>59.9</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>10</v>
@@ -982,23 +1003,23 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>69.97</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>46</v>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>11</v>
@@ -1011,23 +1032,23 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
+      <c r="D13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>12</v>
@@ -1040,23 +1061,23 @@
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>13</v>
@@ -1069,23 +1090,23 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
+      <c r="C15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>14</v>
@@ -1098,23 +1119,23 @@
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
+      <c r="C16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>15</v>
@@ -1127,23 +1148,23 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>84.93</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>62</v>
+      <c r="D17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>16</v>
@@ -1156,23 +1177,23 @@
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>62</v>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>17</v>
@@ -1185,23 +1206,23 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>26</v>
+      <c r="C19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>18</v>
@@ -1214,23 +1235,23 @@
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>26</v>
+      <c r="C20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>19</v>
@@ -1243,23 +1264,23 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>52</v>
+      <c r="C21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>20</v>
@@ -1272,23 +1293,23 @@
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="C22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>79.9</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>62</v>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>21</v>
@@ -1301,23 +1322,23 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="C23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>52</v>
+      <c r="H23" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>22</v>
@@ -1330,23 +1351,23 @@
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>23</v>
@@ -1359,23 +1380,23 @@
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>46</v>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>24</v>
@@ -1388,52 +1409,52 @@
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>52</v>
+      <c r="H26" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>39.9</v>
+      <c r="C27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>69.9</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>46</v>
+      <c r="H27" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>26</v>
@@ -1446,23 +1467,23 @@
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>34</v>
+      <c r="C28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>27</v>
@@ -1475,23 +1496,23 @@
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>38</v>
+      <c r="C29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>28</v>
@@ -1504,271 +1525,77 @@
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="C30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>52</v>
+      <c r="H30" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>79.9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>37</v>
-      </c>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
+      <c r="G42" s="6"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,18 +1604,9 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,112 +1623,60 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="5"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="3"/>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I57"/>
+  <autoFilter ref="A1:I49"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p"/>
-    <hyperlink ref="H2" r:id="rId2" display="https://www.americanas.com.br/_next/image?url=https%3A%2F%2Famericanas.vtexassets.com%2Farquivos%2Fids%2F35854654%2F7500435106610_1.jpg%3Fv%3D638913081535970000&amp;w=540&amp;q=90"/>
-    <hyperlink ref="G3" r:id="rId3" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H3" r:id="rId4" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H4" r:id="rId6" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
-    <hyperlink ref="G5" r:id="rId7" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H5" r:id="rId8" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
-    <hyperlink ref="G6" r:id="rId9" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
-    <hyperlink ref="H6" r:id="rId10" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
-    <hyperlink ref="G7" r:id="rId11" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
-    <hyperlink ref="H7" r:id="rId12" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
-    <hyperlink ref="G8" r:id="rId13" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
-    <hyperlink ref="H8" r:id="rId14" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
-    <hyperlink ref="G9" r:id="rId15" display="https://www.drogasil.com.br/huggies-lencos-umedecidos-classic-jumbo-com-96-unidades.html"/>
-    <hyperlink ref="H9" r:id="rId16" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
-    <hyperlink ref="G10" r:id="rId17" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-30g-com-15-off/p-118631"/>
-    <hyperlink ref="H10" r:id="rId18" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="G11" r:id="rId19" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660"/>
-    <hyperlink ref="H11" r:id="rId20" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="G12" r:id="rId21" display="https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p"/>
-    <hyperlink ref="H12" r:id="rId22" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G13" r:id="rId23" display="https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p"/>
-    <hyperlink ref="H13" r:id="rId24" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G14" r:id="rId25" display="https://www.rihappy.com.br/babador-de-silicone-impermeavel-bebe---pega-migalhas-buba-1002435430/p"/>
-    <hyperlink ref="H14" r:id="rId26" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G15" r:id="rId27" display="https://www.rihappy.com.br/babador-de-silicone-com-pega-migalhas-tigre-buba/p"/>
-    <hyperlink ref="H15" r:id="rId28" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G16" r:id="rId29" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H16" r:id="rId30" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G17" r:id="rId31" display="https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p"/>
-    <hyperlink ref="H17" r:id="rId32" display="https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000"/>
-    <hyperlink ref="G18" r:id="rId33" display="https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p"/>
-    <hyperlink ref="H18" r:id="rId34" display="https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000"/>
-    <hyperlink ref="G19" r:id="rId35" display="https://www.carrefour.com.br/"/>
-    <hyperlink ref="H19" r:id="rId36" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
-    <hyperlink ref="G20" r:id="rId37" display="https://www.carrefour.com.br/"/>
-    <hyperlink ref="H20" r:id="rId38" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
-    <hyperlink ref="G21" r:id="rId39" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H21" r:id="rId40" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G22" r:id="rId41" display="https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p"/>
-    <hyperlink ref="H22" r:id="rId42" display="https://carrefourbr.vtexassets.com/arquivos/ids/119792451/bf8f5231a30343bcabf38f91406297f6.jpg?v=638224576982930000"/>
-    <hyperlink ref="G23" r:id="rId43" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H23" r:id="rId44" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G24" r:id="rId45" display="https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p"/>
-    <hyperlink ref="H24" r:id="rId46" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G25" r:id="rId47" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H25" r:id="rId48" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G26" r:id="rId49" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H26" r:id="rId50" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G27" r:id="rId51" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H27" r:id="rId52" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G28" r:id="rId53" display="https://www.drogasil.com.br/"/>
-    <hyperlink ref="H28" r:id="rId54" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
-    <hyperlink ref="G29" r:id="rId55" display="https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139"/>
-    <hyperlink ref="H29" r:id="rId56" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="G30" r:id="rId57" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H30" r:id="rId58" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G31" r:id="rId59" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H31" r:id="rId60" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G32" r:id="rId61" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H32" r:id="rId62" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G33" r:id="rId63" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H33" r:id="rId64" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G34" r:id="rId65" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H34" r:id="rId66" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G35" r:id="rId67" display="https://www.carrefour.com.br/"/>
-    <hyperlink ref="H35" r:id="rId68" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000"/>
-    <hyperlink ref="G36" r:id="rId69" display="https://www.drogasil.com.br/needs-creme-contra-assadura-30g.html"/>
-    <hyperlink ref="H36" r:id="rId70" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="G37" r:id="rId71" display="https://www.drogasil.com.br/"/>
-    <hyperlink ref="H37" r:id="rId72" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
-    <hyperlink ref="G38" r:id="rId73" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H38" r:id="rId74" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg?v=638779886816100000"/>
+    <hyperlink ref="G4" r:id="rId4" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H4" r:id="rId5" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/181876736/fralda-descartavel-pampers-confort-sec-g-60-unidades-1.jpg?v=638703203002000000"/>
+    <hyperlink ref="G5" r:id="rId6" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
+    <hyperlink ref="H5" r:id="rId7" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/19777682/fraldas-pampers-confort-sec-xg-58-unidades-1.jpg?v=637610955438030000"/>
+    <hyperlink ref="G6" r:id="rId8" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
+    <hyperlink ref="G7" r:id="rId9" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
+    <hyperlink ref="H7" r:id="rId10" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
+    <hyperlink ref="G8" r:id="rId11" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
+    <hyperlink ref="H8" r:id="rId12" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
+    <hyperlink ref="G9" r:id="rId13" display="https://www.drogasil.com.br/huggies-lencos-umedecidos-classic-jumbo-com-96-unidades.html"/>
+    <hyperlink ref="H9" r:id="rId14" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="G10" r:id="rId15" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-30g-com-15-off/p-118631"/>
+    <hyperlink ref="H10" r:id="rId16" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G11" r:id="rId17" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660"/>
+    <hyperlink ref="H11" r:id="rId18" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
+    <hyperlink ref="G12" r:id="rId19" display="https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p"/>
+    <hyperlink ref="H12" r:id="rId20" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G13" r:id="rId21" display="https://www.rihappy.com.br/babador-de-silicone-impermeavel-bebe---pega-migalhas-buba-1002435430/p"/>
+    <hyperlink ref="H13" r:id="rId22" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G14" r:id="rId23" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="H14" r:id="rId24" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
+    <hyperlink ref="G15" r:id="rId25" display="https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p"/>
+    <hyperlink ref="H15" r:id="rId26" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
+    <hyperlink ref="G16" r:id="rId27" display="https://www.carrefour.com.br/"/>
+    <hyperlink ref="H16" r:id="rId28" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA"/>
+    <hyperlink ref="G17" r:id="rId29" display="https://www.carrefour.com.br/"/>
+    <hyperlink ref="H17" r:id="rId30" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
+    <hyperlink ref="G18" r:id="rId31" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G19" r:id="rId32" display="https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p"/>
+    <hyperlink ref="G20" r:id="rId33" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G21" r:id="rId34" display="https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p"/>
+    <hyperlink ref="G22" r:id="rId35" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G23" r:id="rId36" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G24" r:id="rId37" display="https://www.drogasil.com.br/"/>
+    <hyperlink ref="G25" r:id="rId38" display="https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139"/>
+    <hyperlink ref="G26" r:id="rId39" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G27" r:id="rId40" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G28" r:id="rId41" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G29" r:id="rId42" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G30" r:id="rId43" display="https://www.rihappy.com.br/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1919,6 +1685,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId75"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">Pacote de fraldas Pampers Confort Sec tamanho P.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.americanas.com.br/_next/image?url=https%3A%2F%2Famericanas.vtexassets.com%2Farquivos%2Fids%2F35854654%2F7500435106610_1.jpg%3Fv%3D638913081535970000&amp;w=540&amp;q=90</t>
   </si>
   <si>
@@ -76,10 +73,7 @@
     <t xml:space="preserve">Proteção até 12h - tamanho M.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg?v=638779886816100000</t>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/201726766/5244226_1.jpg?v=638936268760330000</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Pampers Confort Sec G 60un</t>
@@ -88,7 +82,7 @@
     <t xml:space="preserve">Tamanho G com barreiras antivazamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/181876736/fralda-descartavel-pampers-confort-sec-g-60-unidades-1.jpg?v=638703203002000000</t>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/201726737/5244196_1.jpg?v=638936268224000000</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Pampers Confort Sec XG 58un</t>
@@ -97,7 +91,7 @@
     <t xml:space="preserve">Tamanho XG com ótima absorção.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/19777682/fraldas-pampers-confort-sec-xg-58-unidades-1.jpg?v=637610955438030000</t>
+    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/201726774/5501415_1.jpg?v=638936269540730000</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Huggies Tripla Proteção M 42un</t>
@@ -106,9 +100,6 @@
     <t xml:space="preserve">Mais sequinho e protegido por até 12h.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/194167560/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-m-pacote-42-unidades-1.jpg?v=638893986462430000</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t xml:space="preserve">Lenços hipoalergênicos sem álcool.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.drogasil.com.br/huggies-lencos-umedecidos-classic-jumbo-com-96-unidades.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://product-data.raiadrogasil.io/images/8991203.webp</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t xml:space="preserve">Creme preventivo de assaduras 30g.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-30g-com-15-off/p-118631</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t xml:space="preserve">Proteção por até 10 horas (60g).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x</t>
   </si>
   <si>
@@ -175,9 +157,6 @@
     <t xml:space="preserve">Bico macio de fluxo controlado.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t xml:space="preserve">Babador de silicone ajustável e fácil de limpar.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rihappy.com.br/babador-de-silicone-impermeavel-bebe---pega-migalhas-buba-1002435430/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150</t>
   </si>
   <si>
@@ -199,9 +175,6 @@
     <t xml:space="preserve">Talheres com pontas arredondadas.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rihappy.com.br/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true</t>
   </si>
   <si>
@@ -214,9 +187,6 @@
     <t xml:space="preserve">Banheira confortável com apoio de braço.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000</t>
   </si>
   <si>
@@ -226,9 +196,6 @@
     <t xml:space="preserve">Fórmula hipoalergênica para uso diário.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carrefour.com.br/</t>
-  </si>
-  <si>
     <t xml:space="preserve">data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA=</t>
   </si>
   <si>
@@ -256,9 +223,6 @@
     <t xml:space="preserve">Mede a temperatura sem contato.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/termometro-laser-digital-infravermelho-draik/adcccomercio/prdczzzzq6yjlzh5/1db9141c946ce10fdc661e3ab810d791.jpeg</t>
   </si>
   <si>
@@ -283,9 +247,6 @@
     <t xml:space="preserve">Um lado impermeável, fácil de limpar.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/trocador-portatil-bebe-com-1-bolso-impermeavel-grande-100-algodao-com-fechamento-mae-e-filho-mae-e-filho-enxovais/maeefilhoenxovais/troc-port-1b-nvrosa/72d8120bf009b6ff915e07fd77ee3a39.jpeg</t>
   </si>
   <si>
@@ -313,9 +274,6 @@
     <t xml:space="preserve">Lenços com álcool para higienização.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.drogasil.com.br/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://a-static.mlcdn.com.br/800x560/limpa-chupeta-30-lencos-umedecidos-para-acessorios-do-bebe-likluc/lojabelacrianca/8360019609/31d98490c053e9bc0a2d1030d3a36bac.jpeg</t>
   </si>
   <si>
@@ -323,9 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve">Limpeza suave, hipoalergênico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139</t>
   </si>
   <si>
     <t xml:space="preserve">https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcSG7HWnYZOT_X-yw6qHfEMrNcskmBEUn5_cCDbHsTSyarFVXDm1-Lp1fblO87JmP4ZR2F7ZVMv7VlwYVNoyXS4KvT14XaMJ68CaUVV5ixQVYuaCRuV64Okjlf2Zu3HTM_CPJkXDcFbL6w&amp;usqp=CAc</t>
@@ -534,12 +489,72 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
+          <fgColor rgb="FF0000EE"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -661,7 +676,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,7 +692,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.78"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,23 +728,23 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>86.9</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1</v>
@@ -742,23 +757,23 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="1" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>2</v>
@@ -771,23 +786,23 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>86.9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>3</v>
@@ -800,23 +815,23 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>114.99</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>114.99</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>4</v>
@@ -829,23 +844,23 @@
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>5</v>
@@ -858,23 +873,23 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>69.9</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>6</v>
@@ -887,23 +902,23 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>114.9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>7</v>
@@ -916,23 +931,23 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>24.9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>8</v>
@@ -945,23 +960,23 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>39.9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>9</v>
@@ -974,23 +989,23 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>59.9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>10</v>
@@ -1003,23 +1018,23 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>69.97</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>11</v>
@@ -1032,23 +1047,23 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>12</v>
@@ -1061,23 +1076,23 @@
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>19.9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>13</v>
@@ -1090,23 +1105,23 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>99.9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>14</v>
@@ -1119,23 +1134,23 @@
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>18.9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>15</v>
@@ -1148,23 +1163,23 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>16</v>
@@ -1177,23 +1192,23 @@
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>39.9</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>17</v>
@@ -1206,23 +1221,23 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>79.9</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>18</v>
@@ -1235,23 +1250,23 @@
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>29.9</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>19</v>
@@ -1264,23 +1279,23 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="0" t="n">
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>49.9</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>20</v>
@@ -1293,23 +1308,23 @@
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>79.9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>21</v>
@@ -1322,23 +1337,23 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>39.9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>22</v>
@@ -1351,23 +1366,23 @@
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>14.9</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>23</v>
@@ -1380,23 +1395,23 @@
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>29.9</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>24</v>
@@ -1409,23 +1424,23 @@
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>49.9</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>25</v>
@@ -1438,23 +1453,23 @@
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>69.9</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>26</v>
@@ -1467,23 +1482,23 @@
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="0" t="n">
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>39.9</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>27</v>
@@ -1496,23 +1511,23 @@
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="0" t="n">
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <v>129.9</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>28</v>
@@ -1525,23 +1540,23 @@
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>19.9</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>29</v>
@@ -1634,49 +1649,30 @@
   </sheetData>
   <autoFilter ref="A1:I49"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.carrefour.com.br/banheira-infantil-barquinhos-23l-azul-mp933757657/p"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/187010375/5244226_1.jpg.jpg?v=638779886816100000"/>
-    <hyperlink ref="G4" r:id="rId4" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H4" r:id="rId5" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/181876736/fralda-descartavel-pampers-confort-sec-g-60-unidades-1.jpg?v=638703203002000000"/>
-    <hyperlink ref="G5" r:id="rId6" display="https://mercado.carrefour.com.br/busca/fralda%20pampers%20confort%20sec"/>
-    <hyperlink ref="H5" r:id="rId7" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/19777682/fraldas-pampers-confort-sec-xg-58-unidades-1.jpg?v=637610955438030000"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
-    <hyperlink ref="G7" r:id="rId9" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
-    <hyperlink ref="H7" r:id="rId10" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
-    <hyperlink ref="G8" r:id="rId11" display="https://www.carrefour.com.br/fralda-huggies-tripla-protecao-m-42-unidades-mp920140871/p"/>
-    <hyperlink ref="H8" r:id="rId12" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
-    <hyperlink ref="G9" r:id="rId13" display="https://www.drogasil.com.br/huggies-lencos-umedecidos-classic-jumbo-com-96-unidades.html"/>
-    <hyperlink ref="H9" r:id="rId14" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
-    <hyperlink ref="G10" r:id="rId15" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-30g-com-15-off/p-118631"/>
-    <hyperlink ref="H10" r:id="rId16" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="G11" r:id="rId17" display="https://www.panvel.com/panvel/bepantol-baby-creme-preventivo-de-assaduras-para-bebes-60g/p-654660"/>
-    <hyperlink ref="H11" r:id="rId18" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
-    <hyperlink ref="G12" r:id="rId19" display="https://www.rihappy.com.br/mamadeira-transparente-260-ml-petala-philips-avent/p"/>
-    <hyperlink ref="H12" r:id="rId20" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G13" r:id="rId21" display="https://www.rihappy.com.br/babador-de-silicone-impermeavel-bebe---pega-migalhas-buba-1002435430/p"/>
-    <hyperlink ref="H13" r:id="rId22" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G14" r:id="rId23" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="H14" r:id="rId24" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
-    <hyperlink ref="G15" r:id="rId25" display="https://www.carrefour.com.br/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil-mp933186620/p"/>
-    <hyperlink ref="H15" r:id="rId26" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
-    <hyperlink ref="G16" r:id="rId27" display="https://www.carrefour.com.br/"/>
-    <hyperlink ref="H16" r:id="rId28" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA"/>
-    <hyperlink ref="G17" r:id="rId29" display="https://www.carrefour.com.br/"/>
-    <hyperlink ref="H17" r:id="rId30" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
-    <hyperlink ref="G18" r:id="rId31" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G19" r:id="rId32" display="https://www.carrefour.com.br/termometro-digital-infravermelho-testa-bebe-tela-colorida-mv29550179/p"/>
-    <hyperlink ref="G20" r:id="rId33" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G21" r:id="rId34" display="https://www.rihappy.com.br/trocador-portatil-bebe-karinho-bosque-75x45cm-1003062164/p"/>
-    <hyperlink ref="G22" r:id="rId35" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G23" r:id="rId36" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G24" r:id="rId37" display="https://www.drogasil.com.br/"/>
-    <hyperlink ref="G25" r:id="rId38" display="https://www.panvel.com/panvel/lencos-umedecidos-hipoalergenicos-bepantol-baby-com-48-unidades/p-110139"/>
-    <hyperlink ref="G26" r:id="rId39" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G27" r:id="rId40" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G28" r:id="rId41" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G29" r:id="rId42" display="https://www.rihappy.com.br/"/>
-    <hyperlink ref="G30" r:id="rId43" display="https://www.rihappy.com.br/"/>
+    <hyperlink ref="G5" r:id="rId1" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/201726774/5501415_1.jpg?v=638936269540730000"/>
+    <hyperlink ref="H5" r:id="rId2" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/201726774/5501415_1.jpg?v=638936269540730000"/>
+    <hyperlink ref="G7" r:id="rId3" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
+    <hyperlink ref="H7" r:id="rId4" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
+    <hyperlink ref="H8" r:id="rId6" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
+    <hyperlink ref="G9" r:id="rId7" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="H9" r:id="rId8" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="G10" r:id="rId9" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="H10" r:id="rId10" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G11" r:id="rId11" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
+    <hyperlink ref="H11" r:id="rId12" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
+    <hyperlink ref="G12" r:id="rId13" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="H12" r:id="rId14" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G13" r:id="rId15" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="H13" r:id="rId16" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G14" r:id="rId17" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
+    <hyperlink ref="H14" r:id="rId18" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
+    <hyperlink ref="G15" r:id="rId19" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
+    <hyperlink ref="H15" r:id="rId20" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
+    <hyperlink ref="G16" r:id="rId21" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA="/>
+    <hyperlink ref="H16" r:id="rId22" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA="/>
+    <hyperlink ref="G17" r:id="rId23" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
+    <hyperlink ref="H17" r:id="rId24" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1685,6 +1681,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId44"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Proteção até 12h - tamanho M.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/201726766/5244226_1.jpg?v=638936268760330000</t>
+    <t xml:space="preserve">https://www.drogaraia.com.br/_next/image?url=https%3A%2F%2Fproduct-data.raiadrogasil.io%2Fimages%2F3519398.webp&amp;w=828&amp;q=75</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Pampers Confort Sec G 60un</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Tamanho G com barreiras antivazamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/201726737/5244196_1.jpg?v=638936268224000000</t>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/shopping?q=tbn:ANd9GcTCBGA_mkJEHQ2jQvrOFXtdSgpmO8jgdvvYrcpl6RZ0ZjeBwadnqiJkoBulFZ1tv2ZSg4y4Q46MCzZoVVZt6ECBRpJL7iYYYjiEVI4X8yTHGINA3OxSe6JNew</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Pampers Confort Sec XG 58un</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Tamanho XG com ótima absorção.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://carrefourbrfood.vtexassets.com/arquivos/ids/201726774/5501415_1.jpg?v=638936269540730000</t>
+    <t xml:space="preserve">https://product-data.raiadrogasil.io/images/11324921.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Fralda Huggies Tripla Proteção M 42un</t>
@@ -676,7 +676,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1649,30 +1649,28 @@
   </sheetData>
   <autoFilter ref="A1:I49"/>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/201726774/5501415_1.jpg?v=638936269540730000"/>
-    <hyperlink ref="H5" r:id="rId2" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/201726774/5501415_1.jpg?v=638936269540730000"/>
-    <hyperlink ref="G7" r:id="rId3" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
-    <hyperlink ref="H7" r:id="rId4" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
-    <hyperlink ref="G8" r:id="rId5" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
-    <hyperlink ref="H8" r:id="rId6" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
-    <hyperlink ref="G9" r:id="rId7" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
-    <hyperlink ref="H9" r:id="rId8" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="H10" r:id="rId10" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
-    <hyperlink ref="G11" r:id="rId11" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
-    <hyperlink ref="H11" r:id="rId12" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
-    <hyperlink ref="G12" r:id="rId13" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="H12" r:id="rId14" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
-    <hyperlink ref="G13" r:id="rId15" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="H13" r:id="rId16" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
-    <hyperlink ref="G14" r:id="rId17" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
-    <hyperlink ref="H14" r:id="rId18" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
-    <hyperlink ref="G15" r:id="rId19" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
-    <hyperlink ref="H15" r:id="rId20" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
-    <hyperlink ref="G16" r:id="rId21" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA="/>
-    <hyperlink ref="H16" r:id="rId22" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA="/>
-    <hyperlink ref="G17" r:id="rId23" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
-    <hyperlink ref="H17" r:id="rId24" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
+    <hyperlink ref="H7" r:id="rId2" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183223703/fralda-descartavel-infantil-huggies-tripla-protecao-xtra-protect-g-pacote-36-unidades-1.jpg?v=638741909664530000"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
+    <hyperlink ref="H8" r:id="rId4" display="https://carrefourbrfood.vtexassets.com/arquivos/ids/183222663/fralda-huggies-tripla-protecao-xg---66-fraldas-1.jpg?v=638741897047270000"/>
+    <hyperlink ref="G9" r:id="rId5" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://product-data.raiadrogasil.io/images/8991203.webp"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="H10" r:id="rId8" display="https://cdn1.staticpanvel.com.br/produtos/15/118631-15.jpg?ims=424x"/>
+    <hyperlink ref="G11" r:id="rId9" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
+    <hyperlink ref="H11" r:id="rId10" display="https://cdn1.staticpanvel.com.br/produtos/15/654660-15.jpg?ims=424x"/>
+    <hyperlink ref="G12" r:id="rId11" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="H12" r:id="rId12" display="https://rihappy.vtexassets.com/arquivos/ids/3586140-150-auto?aspect=true&amp;height=auto&amp;v=637891393334830000&amp;width=150"/>
+    <hyperlink ref="G13" r:id="rId13" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="H13" r:id="rId14" display="https://rihappy.vtexassets.com/arquivos/ids/3017558-150-auto?aspect=true&amp;height=auto&amp;v=637849311231830000&amp;width=150"/>
+    <hyperlink ref="G14" r:id="rId15" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
+    <hyperlink ref="H14" r:id="rId16" display="https://rihappynovo.vtexassets.com/arquivos/ids/7027011-175-175?v=638680723334630000&amp;width=175&amp;height=175&amp;aspect=true"/>
+    <hyperlink ref="G15" r:id="rId17" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
+    <hyperlink ref="H15" r:id="rId18" display="https://carrefourbr.vtexassets.com/arquivos/ids/177374001/banheira-aconchego-22-litros-fofura-rosa-translucida-cajovil.jpg?v=638660155541770000"/>
+    <hyperlink ref="G16" r:id="rId19" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA="/>
+    <hyperlink ref="H16" r:id="rId20" display="data:image/webp;base64,UklGRugIAABXRUJQVlA4INwIAABQKQCdASq4AIUAPj0cjUSiIaESaQUMIAPEpu4XHb7khkrN+d8zazf4fbHqv8p/m3/jfdJ2vvMH51n7i+oD9fP1393r0S/s77AH7G9Zz+6nsEftz6b/7hfDR/ev+z6UlZHbUd7+0mYW+585tNbPJ+EP93HV4fYaHkQfaO4PrbZyEYQmIhhVcdfGk9sXFWCbkP9mqx8kNYuCDZIT/afL8t2ex1Zwl1EES/OPZmVbRnH9JYzfzObc73ohSO/VS/b7jMWGOKhbD8j1YtP1Zh57DPNnKqD3h2lY+L83Lvsw/Z7wGPfyUEj1Id08cI10VoONLN+VIHrd6LQ++eTWuJryE+mUGt+tnfT4Lcv3qSS8QT5YmpTvGlAhwrAp6az3+PNj7CEgqDqi7T5Uq4r56ROJlOBzDF9vPoJF+AHpfrTUA7Sdku/qAEsziMv77flS/7ZMcRBAOgAA/v+fiKiQtDNqm2n7u+GtoH26dKaEeKoLqEOZcZaigFVut2AvwJ0RarF0F20Lbwwp5lF0lNCJKJcfUqoe+QpZR44Rb4EACW61RI/p5RV0esxB4iLRPbtMjsF1QOIXKjv6X6eAmBNHrVYr0M4k7HLz9Vrujy8qKHCPPozsn/Fo3yoWdcCsZsULeas35W1T481WM1ySAwRJSDkCujSehgWPKcOOMM2MWkFlsZVI6kxyrXfGFqqxyMtNq91/GKkoS3EahaDqATgAmIfS+YxJtj6rs2JxDiYUh3rqoIbCy1YlAREHdtEqnqk9yUBBgQA8B1yGV4wJO0/lk3mPQLQ+bE1qOMVEogLTPqvvcZ98XvYFeQaZBE31jwho+0xaNhnyG5JWvwA7Fn9uktpsDN/A1h5HrzhwuyjSwuCriaQTkm+VCehZnzHJjgTO6r67w4obzYRCAVpBR9UpmPLiQHpJWIW42ojivrkahkmLu4tUc4BV1PCijOD32FGPT3iK7qZXT5ycmpoprfE9jJiY33TJMuWwrP3MmHr0F0iF28XcTFv7gMoFHJpnAJRmRz8wNfFIRiAtnXM9bdbfWnUlCLlpSCbmEwxu8D1Yxs6f89R33MDwghOrnYBuIi5wkSrX3n+bZALc+DQB2YkINi9Un5WLGLnHdbdKzRAod0MwYzXBpfwrJeJsPyto1gLeLfUCl8lJWgsjCtNS4cNPjbV3NiyNgZ6x4cEFrYcKSROOrr29is1SK97ICX8NSnj/ziu0l11s8Xx/ss2Tdopjy8hJQ6/QDBd3chGvStR6KNDirCy3MTFhvvqGnGCsSfAZnB+/eTceViy2djm1/7jg8D4/SCl7MUcd185iQTHx0h+O44STp3kiNa6xDAfzsZJund8uzM96qxGspSmnsnAB1cNYFXNVTBgIo1vWI/DURLplD0rZzd7HDg6je5yz21c3QcQd+dH//Z762kTdvxWQTeuaMkw9y8ftKpTDerdarV8NRZ4DVy+TyAxfsj3YdDqJs4ES+f19/71zGOY2C3e3N4AT775Vj5fd0oUxLGM+QIIhmmUZG3smeCMuEa8y0SsbfdLIL/C+n7T5B9d81xN/XpSD8bPiXGjLNyZIzq8q0f+/XFFbQk1JiIFrDf/BNXzQrZV69tBhS8lHy6OsCmLkIWS7f3VBmPjMAubAuRdutzQfgC6R8MoQ/3HCwIQ+kdEMcr9x6UWpQpbX4+Lr7a3JmZtpDyM4u02++2GnmuxEaC37rV5levHDPTE9JhWNdZq38ESE/tdTJyGYIqErVMshIqkbDodL2nkP4bMtqV0ELTtXXKlBj9TQseNQU5d/ROkC+oYSoaU3Tsy9f/wHSoQq5WqlafUXL5InTAcjrcxhpmOkWldNezwK5gD2ce+tRFZ2U2yZVnTHfo5WmACuvnUIyMP0ljHkBW+/E/Q2ARQHda7yWjiYhSf/BNq9NR0Y/DO1vVcqJhSdAijn9xIHMjinHz3OjOLSIqu2E4+VChvFfydPPp9YnSaL4rabmK6GUDj3NwrDRHlO2rKTS5g/GfWD4I9I+VdjGHS7FMnZeNADm2MH++nuVO7tQLYsR9xl2PJ/kdGeAA2A3OfcMh0f/iefO5pZSS6v6LN+GnHMJCt1WSA67mY5Rav2F1HqGRhml1Y+5k0uRa2DppeweWI/BbWo2ZdMsXRqU/L1vzSTS48yVSo8BLL5JqX7zEkyn/1PMHontshogV7u9scrm1lmyUrbMX78fQoKXp+iP5wAxOlSE0jw+K9YvlFxzVuxm/nADDE1ZWNpXF3dp3CHiWvmbqXPJAXJgzak1EFm3LKb78DFEniWACZ7vJdwl3QfHNpAxuhlHGzyYXmVfiyTAoX6QPFXIjni8r59MhrJG28HUIAX3Bh48jCZ2wabxQUXi9OfUxNuVSI5TAvpy3E7HLuZ2Rh/fKxBh52O98p5V6DiScfLgxgEU51VhKwNbwyaDFR5lAwZDtn2hF95xrcVmKVmcyAE3NxqoUqnSSkLcWL+mXum2nbf8rKdI4t/geUwMj6OH3mzgmpD+tXk8R7nmJqiwJU1kiTeg6mW5zAaAh4fNpvTYuQkbGHimbfSGvUGaNkk/CcZQfqTDnOBK8p6G6xWqw0bbKdSHtVRgd6eTYc5CKC2uGNnL+vaiwDJ7kH+EUCKMEY6jQw+SOUG92i5kDwsHcyCLf10/G+PZDyKAFDoF3tttxabTujo7FmH+21u1olncKryNo/j8ViWOlp8pke74UmeCoUXWFGabJiFrSqduw3GB7/SqT1FDoGR+TVtMY2qeRlTm3fH7fkXN75PKD6LCvt7HVUia67gEd1Mi6WUR9OzR0lRCK0lPxO/Yj9G9Cg4qi5wliZetNS79fOosF1dgug15cvygowPa0yfw9rLcjZABIIx7eDlleq6MapzzkzqSPpAPS2N7rFpePfFQLVyIdZzBZEBmGJRc2vvayk0KkH17gOp+CEg3+QtZhqnvwzQP2uBM0LtrtacDtiJCS27uIdfyc8CBmbIGOaJD7jZ6EE7qIiboGj/DAS2uEtqZewBtHZs9UwStHXrCiMnRTwRhyAAAAA="/>
+    <hyperlink ref="G17" r:id="rId21" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
+    <hyperlink ref="H17" r:id="rId22" display="https://encrypted-tbn1.gstatic.com/shopping?q=tbn:ANd9GcRrDuJOGWvHcb5vNeyZoikynukCWp2HOKoqWlY4e1KjzUte9j2VmScXPZaTlDuRj76I8FHLc3ds6nzQ4ndkSXURofGHYkkIO9k-k-ngigmhiIEuWga1skI"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1681,6 +1679,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>